--- a/SignalAnalysis/localization/Remaining strings translation.xlsx
+++ b/SignalAnalysis/localization/Remaining strings translation.xlsx
@@ -193,7 +193,7 @@
       </x:c>
       <x:c r="D2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In plot derivative</x:t>
         </x:is>
       </x:c>
       <x:c r="E2" t="inlineStr">
@@ -315,7 +315,7 @@
       </x:c>
       <x:c r="D3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In plot derivative</x:t>
         </x:is>
       </x:c>
       <x:c r="E3" t="inlineStr">
@@ -432,17 +432,17 @@
       </x:c>
       <x:c r="C4" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strPlotDerivativeYLabel</x:t>
+          <x:t xml:space="preserve">strPlotDerivativeYLabel1</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In plot derivative</x:t>
         </x:is>
       </x:c>
       <x:c r="E4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / seconds</x:t>
+          <x:t xml:space="preserve">Amplitude / sec</x:t>
         </x:is>
       </x:c>
       <x:c r="F4" t="inlineStr">
@@ -472,7 +472,7 @@
       </x:c>
       <x:c r="K4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / seconds</x:t>
+          <x:t xml:space="preserve">Amplitude / sec</x:t>
         </x:is>
       </x:c>
       <x:c r="L4" t="inlineStr">
@@ -532,7 +532,7 @@
       </x:c>
       <x:c r="W4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitud / segundos</x:t>
+          <x:t xml:space="preserve">Amplitud / seg</x:t>
         </x:is>
       </x:c>
       <x:c r="X4" t="inlineStr">
@@ -559,7 +559,7 @@
       </x:c>
       <x:c r="D5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Column text header in exported files</x:t>
         </x:is>
       </x:c>
       <x:c r="E5" t="inlineStr">
@@ -681,7 +681,7 @@
       </x:c>
       <x:c r="D6" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">Tab text in "settings" form</x:t>
         </x:is>
       </x:c>
       <x:c r="E6" t="inlineStr">
@@ -803,7 +803,7 @@
       </x:c>
       <x:c r="D7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form</x:t>
         </x:is>
       </x:c>
       <x:c r="E7" t="inlineStr">
@@ -925,7 +925,7 @@
       </x:c>
       <x:c r="D8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form</x:t>
         </x:is>
       </x:c>
       <x:c r="E8" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </x:c>
       <x:c r="D9" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form</x:t>
         </x:is>
       </x:c>
       <x:c r="E9" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </x:c>
       <x:c r="D10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
         </x:is>
       </x:c>
       <x:c r="E10" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </x:c>
       <x:c r="D11" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
         </x:is>
       </x:c>
       <x:c r="E11" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </x:c>
       <x:c r="D12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
         </x:is>
       </x:c>
       <x:c r="E12" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </x:c>
       <x:c r="W12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencia central de 3 puntos</x:t>
+          <x:t xml:space="preserve">Diferencias centrales de 3 puntos</x:t>
         </x:is>
       </x:c>
       <x:c r="X12" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </x:c>
       <x:c r="D13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
         </x:is>
       </x:c>
       <x:c r="E13" t="inlineStr">
@@ -1630,10 +1630,254 @@
       </x:c>
       <x:c r="W13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencia central de 5 puntos</x:t>
+          <x:t xml:space="preserve">Diferencias centrales de 5 puntos</x:t>
         </x:is>
       </x:c>
       <x:c r="X13" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A14" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B14" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C14" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strPlotDerivativeYLabel2</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In plot derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitud</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X14" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A15" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B15" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C15" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strStatusTipDerivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Numerical differentiation</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Numerical differentiation</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivada numérica</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X15" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve"/>
         </x:is>

--- a/SignalAnalysis/localization/Remaining strings translation.xlsx
+++ b/SignalAnalysis/localization/Remaining strings translation.xlsx
@@ -188,17 +188,17 @@
       </x:c>
       <x:c r="C2" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strPlotDerivativeTitle</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorEntropyTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In plot derivative</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivative</x:t>
+          <x:t xml:space="preserve">Entropy error</x:t>
         </x:is>
       </x:c>
       <x:c r="F2" t="inlineStr">
@@ -228,7 +228,7 @@
       </x:c>
       <x:c r="K2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivative</x:t>
+          <x:t xml:space="preserve">Entropy error</x:t>
         </x:is>
       </x:c>
       <x:c r="L2" t="inlineStr">
@@ -288,7 +288,7 @@
       </x:c>
       <x:c r="W2" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivada</x:t>
+          <x:t xml:space="preserve">Error en la entropía</x:t>
         </x:is>
       </x:c>
       <x:c r="X2" t="inlineStr">
@@ -310,27 +310,28 @@
       </x:c>
       <x:c r="C3" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strPlotDerivativeXLabel</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorEntropy</x:t>
         </x:is>
       </x:c>
       <x:c r="D3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In plot derivative</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Time (seconds)</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing entropy values.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">الوقت (ثواني)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">সময় (সেকেন্ড)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H3" t="inlineStr">
@@ -340,17 +341,18 @@
       </x:c>
       <x:c r="I3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tid (sekunder)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="J3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tijd (seconden)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="K3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Time (seconds)</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing entropy values.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="L3" t="inlineStr">
@@ -360,17 +362,17 @@
       </x:c>
       <x:c r="M3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zeit (Sekunden)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">समय (सेकंड)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="O3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tempo (secondi)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P3" t="inlineStr">
@@ -380,22 +382,22 @@
       </x:c>
       <x:c r="Q3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Laikas (sekundės)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="R3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tid (sekunder)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="S3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tempo (segundos)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="T3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Время (секунды)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="U3" t="inlineStr">
@@ -410,12 +412,14 @@
       </x:c>
       <x:c r="W3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tiempo (segundos)</x:t>
+          <x:t xml:space="preserve">Se produjo un error inesperado al calcular
+los valores de entropía.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="X3" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zaman (saniye)</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -432,27 +436,27 @@
       </x:c>
       <x:c r="C4" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strPlotDerivativeYLabel1</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorDerivativeTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In plot derivative</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / sec</x:t>
+          <x:t xml:space="preserve">Differentiation error</x:t>
         </x:is>
       </x:c>
       <x:c r="F4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">السعة / واني</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">প্রশস্ততা / সেকেন্ড</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H4" t="inlineStr">
@@ -462,17 +466,17 @@
       </x:c>
       <x:c r="I4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / sekunder</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="J4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / seconden</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="K4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / sec</x:t>
+          <x:t xml:space="preserve">Differentiation error</x:t>
         </x:is>
       </x:c>
       <x:c r="L4" t="inlineStr">
@@ -482,17 +486,17 @@
       </x:c>
       <x:c r="M4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / Sekunden</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">आयाम / सेकंड</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="O4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ampiezza / secondi</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P4" t="inlineStr">
@@ -502,22 +506,22 @@
       </x:c>
       <x:c r="Q4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitudė / sekundės</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="R4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / sekunder</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="S4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude / segundos</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="T4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Амплитуда / секунды</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="U4" t="inlineStr">
@@ -532,12 +536,12 @@
       </x:c>
       <x:c r="W4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitud / seg</x:t>
+          <x:t xml:space="preserve">Error en la derivada</x:t>
         </x:is>
       </x:c>
       <x:c r="X4" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Genlik / saniye</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -554,27 +558,28 @@
       </x:c>
       <x:c r="C5" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strFileHeader28</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorDerivative</x:t>
         </x:is>
       </x:c>
       <x:c r="D5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Column text header in exported files</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivative</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing numerical differentiation.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">المشتق</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="G5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ডেরিভেটিভ</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="H5" t="inlineStr">
@@ -584,17 +589,18 @@
       </x:c>
       <x:c r="I5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afledt</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="J5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afgeleide</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="K5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivative</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing numerical differentiation.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="L5" t="inlineStr">
@@ -604,17 +610,17 @@
       </x:c>
       <x:c r="M5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ableitung</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="N5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">व्युत्पन्न</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="O5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivata</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="P5" t="inlineStr">
@@ -624,22 +630,22 @@
       </x:c>
       <x:c r="Q5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Išvestinė</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="R5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivativ</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="S5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivada</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="T5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Производная</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="U5" t="inlineStr">
@@ -654,12 +660,14 @@
       </x:c>
       <x:c r="W5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivada</x:t>
+          <x:t xml:space="preserve">Se produjo un error inesperado al calcular
+la derivada numérica.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="X5" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Türetilmiş</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
     </x:row>
@@ -676,17 +684,18 @@
       </x:c>
       <x:c r="C6" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strTabDerivative</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorDescriptiveStats</x:t>
         </x:is>
       </x:c>
       <x:c r="D6" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tab text in "settings" form</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E6" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Differentiation</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing descriptive statistics values.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F6" t="inlineStr">
@@ -716,7 +725,8 @@
       </x:c>
       <x:c r="K6" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Differentiation</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing descriptive statistics values.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="L6" t="inlineStr">
@@ -776,7 +786,9 @@
       </x:c>
       <x:c r="W6" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivada</x:t>
+          <x:t xml:space="preserve">Se produjo un error inesperado al calcular
+los estadísticos descriptivos.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="X6" t="inlineStr">
@@ -798,17 +810,17 @@
       </x:c>
       <x:c r="C7" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strChkComputeDerivative</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorDescriptiveStatsTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Compute numerical differentiation?</x:t>
+          <x:t xml:space="preserve">Statistics error</x:t>
         </x:is>
       </x:c>
       <x:c r="F7" t="inlineStr">
@@ -838,7 +850,7 @@
       </x:c>
       <x:c r="K7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Compute numerical differentiation?</x:t>
+          <x:t xml:space="preserve">Statistics error</x:t>
         </x:is>
       </x:c>
       <x:c r="L7" t="inlineStr">
@@ -898,7 +910,7 @@
       </x:c>
       <x:c r="W7" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">¿Calcular la derivada numérica?</x:t>
+          <x:t xml:space="preserve">Error en la estadística</x:t>
         </x:is>
       </x:c>
       <x:c r="X7" t="inlineStr">
@@ -920,17 +932,17 @@
       </x:c>
       <x:c r="C8" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strChkExportDerivative</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorFractalTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Export derivative data?</x:t>
+          <x:t xml:space="preserve">Fractal error</x:t>
         </x:is>
       </x:c>
       <x:c r="F8" t="inlineStr">
@@ -960,7 +972,7 @@
       </x:c>
       <x:c r="K8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Export derivative data?</x:t>
+          <x:t xml:space="preserve">Fractal error</x:t>
         </x:is>
       </x:c>
       <x:c r="L8" t="inlineStr">
@@ -1020,7 +1032,7 @@
       </x:c>
       <x:c r="W8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">¿Exportar los datos de la derivada?</x:t>
+          <x:t xml:space="preserve">Error en dimensión fractal</x:t>
         </x:is>
       </x:c>
       <x:c r="X8" t="inlineStr">
@@ -1042,17 +1054,18 @@
       </x:c>
       <x:c r="C9" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strGrpAlgorithms</x:t>
+          <x:t xml:space="preserve">strMsgBoxErrorFractal</x:t>
         </x:is>
       </x:c>
       <x:c r="D9" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E9" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Finite difference algorithms</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing the fractal dimension.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F9" t="inlineStr">
@@ -1082,7 +1095,8 @@
       </x:c>
       <x:c r="K9" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Finite difference algorithms</x:t>
+          <x:t xml:space="preserve">Unexpected error while computing the fractal dimension.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="L9" t="inlineStr">
@@ -1142,7 +1156,8 @@
       </x:c>
       <x:c r="W9" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Algoritmos de diferencias finitas</x:t>
+          <x:t xml:space="preserve">Se produjo un error inesperado al calcular la dimensión fractal.
+{0}</x:t>
         </x:is>
       </x:c>
       <x:c r="X9" t="inlineStr">
@@ -1164,17 +1179,17 @@
       </x:c>
       <x:c r="C10" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strRadBackwardOne</x:t>
+          <x:t xml:space="preserve">strMsgBoxTaskDerivativeCancelTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Backward one-point difference</x:t>
+          <x:t xml:space="preserve">Cancel</x:t>
         </x:is>
       </x:c>
       <x:c r="F10" t="inlineStr">
@@ -1204,7 +1219,7 @@
       </x:c>
       <x:c r="K10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Backward one-point difference</x:t>
+          <x:t xml:space="preserve">Cancel</x:t>
         </x:is>
       </x:c>
       <x:c r="L10" t="inlineStr">
@@ -1264,7 +1279,7 @@
       </x:c>
       <x:c r="W10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencia hacia atrás de 1 punto</x:t>
+          <x:t xml:space="preserve">Fin</x:t>
         </x:is>
       </x:c>
       <x:c r="X10" t="inlineStr">
@@ -1286,17 +1301,17 @@
       </x:c>
       <x:c r="C11" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strRadForwardOne</x:t>
+          <x:t xml:space="preserve">strMsgBoxTaskDerivativeCancel</x:t>
         </x:is>
       </x:c>
       <x:c r="D11" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E11" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Forward one-point difference</x:t>
+          <x:t xml:space="preserve">Numerical differentiation has been stopped.</x:t>
         </x:is>
       </x:c>
       <x:c r="F11" t="inlineStr">
@@ -1326,7 +1341,7 @@
       </x:c>
       <x:c r="K11" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Forward one-point difference</x:t>
+          <x:t xml:space="preserve">Numerical differentiation has been stopped.</x:t>
         </x:is>
       </x:c>
       <x:c r="L11" t="inlineStr">
@@ -1386,7 +1401,7 @@
       </x:c>
       <x:c r="W11" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencia hacia adelante de 1 punto</x:t>
+          <x:t xml:space="preserve">El cálculo de la derivada numérica se ha detenido.</x:t>
         </x:is>
       </x:c>
       <x:c r="X11" t="inlineStr">
@@ -1408,17 +1423,17 @@
       </x:c>
       <x:c r="C12" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strRadCentralThree</x:t>
+          <x:t xml:space="preserve">strMsgBoxTaskEntropyCancelTitle</x:t>
         </x:is>
       </x:c>
       <x:c r="D12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Central three-point difference</x:t>
+          <x:t xml:space="preserve">Cancel</x:t>
         </x:is>
       </x:c>
       <x:c r="F12" t="inlineStr">
@@ -1448,7 +1463,7 @@
       </x:c>
       <x:c r="K12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Central three-point difference</x:t>
+          <x:t xml:space="preserve">Cancel</x:t>
         </x:is>
       </x:c>
       <x:c r="L12" t="inlineStr">
@@ -1508,7 +1523,7 @@
       </x:c>
       <x:c r="W12" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencias centrales de 3 puntos</x:t>
+          <x:t xml:space="preserve">Fin</x:t>
         </x:is>
       </x:c>
       <x:c r="X12" t="inlineStr">
@@ -1530,17 +1545,17 @@
       </x:c>
       <x:c r="C13" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strRadCentralFive</x:t>
+          <x:t xml:space="preserve">strMsgBoxTaskEntropyCancel</x:t>
         </x:is>
       </x:c>
       <x:c r="D13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+          <x:t xml:space="preserve"/>
         </x:is>
       </x:c>
       <x:c r="E13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Central five-point difference</x:t>
+          <x:t xml:space="preserve">Entropy computation has been stopped.</x:t>
         </x:is>
       </x:c>
       <x:c r="F13" t="inlineStr">
@@ -1570,7 +1585,7 @@
       </x:c>
       <x:c r="K13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Central five-point difference</x:t>
+          <x:t xml:space="preserve">Entropy computation has been stopped.</x:t>
         </x:is>
       </x:c>
       <x:c r="L13" t="inlineStr">
@@ -1630,7 +1645,7 @@
       </x:c>
       <x:c r="W13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Diferencias centrales de 5 puntos</x:t>
+          <x:t xml:space="preserve">El cálculo de la entropía se ha detenido.</x:t>
         </x:is>
       </x:c>
       <x:c r="X13" t="inlineStr">
@@ -1652,17 +1667,17 @@
       </x:c>
       <x:c r="C14" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strPlotDerivativeYLabel2</x:t>
+          <x:t xml:space="preserve">strStatusTipDerivative</x:t>
         </x:is>
       </x:c>
       <x:c r="D14" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In plot derivative</x:t>
+          <x:t xml:space="preserve">Tooltip in the lower right corner button</x:t>
         </x:is>
       </x:c>
       <x:c r="E14" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude</x:t>
+          <x:t xml:space="preserve">Numerical differentiation</x:t>
         </x:is>
       </x:c>
       <x:c r="F14" t="inlineStr">
@@ -1692,7 +1707,7 @@
       </x:c>
       <x:c r="K14" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitude</x:t>
+          <x:t xml:space="preserve">Numerical differentiation</x:t>
         </x:is>
       </x:c>
       <x:c r="L14" t="inlineStr">
@@ -1752,7 +1767,7 @@
       </x:c>
       <x:c r="W14" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Amplitud</x:t>
+          <x:t xml:space="preserve">Derivada numérica</x:t>
         </x:is>
       </x:c>
       <x:c r="X14" t="inlineStr">
@@ -1774,17 +1789,17 @@
       </x:c>
       <x:c r="C15" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">strStatusTipDerivative</x:t>
+          <x:t xml:space="preserve">strPlotDerivativeYLabel2</x:t>
         </x:is>
       </x:c>
       <x:c r="D15" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve"/>
+          <x:t xml:space="preserve">In plot derivative</x:t>
         </x:is>
       </x:c>
       <x:c r="E15" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Numerical differentiation</x:t>
+          <x:t xml:space="preserve">Amplitude</x:t>
         </x:is>
       </x:c>
       <x:c r="F15" t="inlineStr">
@@ -1814,7 +1829,7 @@
       </x:c>
       <x:c r="K15" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Numerical differentiation</x:t>
+          <x:t xml:space="preserve">Amplitude</x:t>
         </x:is>
       </x:c>
       <x:c r="L15" t="inlineStr">
@@ -1874,10 +1889,1474 @@
       </x:c>
       <x:c r="W15" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Derivada numérica</x:t>
+          <x:t xml:space="preserve">Amplitud</x:t>
         </x:is>
       </x:c>
       <x:c r="X15" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A16" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B16" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C16" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strRadCentralFive</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Central five-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Central five-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Diferencias centrales de 5 puntos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X16" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A17" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B17" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C17" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strRadCentralThree</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Central three-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Central three-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Diferencias centrales de 3 puntos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X17" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A18" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B18" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C18" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strRadForwardOne</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Forward one-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Forward one-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Diferencia hacia adelante de 1 punto</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X18" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A19" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B19" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C19" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strRadBackwardOne</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form, mathematical name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Backward one-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Backward one-point difference</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Diferencia hacia atrás de 1 punto</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X19" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A20" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B20" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C20" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strGrpAlgorithms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Finite difference algorithms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Finite difference algorithms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Algoritmos de diferencias finitas</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X20" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A21" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B21" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C21" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strChkExportDerivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Export derivative data?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Export derivative data?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">¿Exportar los datos de la derivada?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X21" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A22" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B22" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C22" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strChkComputeDerivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In "settings" form</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Compute numerical differentiation?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Compute numerical differentiation?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">¿Calcular la derivada numérica?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X22" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A23" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B23" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C23" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strTabDerivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tab text in "settings" form</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Differentiation</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Differentiation</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivada</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X23" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A24" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B24" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C24" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strFileHeader28</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Column text header in exported files</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">المشتق</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ডেরিভেটিভ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afledt</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afgeleide</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ableitung</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">व्युत्पन्न</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivata</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Išvestinė</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivativ</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivada</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Производная</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivada</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X24" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Türetilmiş</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A25" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B25" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C25" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strPlotDerivativeYLabel1</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In plot derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / sec</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">السعة / واني</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">প্রশস্ততা / সেকেন্ড</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / sekunder</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / seconden</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / sec</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / Sekunden</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">आयाम / सेकंड</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ampiezza / secondi</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitudė / sekundės</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / sekunder</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitude / segundos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Амплитуда / секунды</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Amplitud / seg</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X25" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Genlik / saniye</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A26" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B26" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C26" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strPlotDerivativeXLabel</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In plot derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Time (seconds)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">الوقت (ثواني)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="G26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">সময় (সেকেন্ড)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tid (sekunder)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tijd (seconden)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="K26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Time (seconds)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Zeit (Sekunden)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="N26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">समय (सेकंड)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="O26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tempo (secondi)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="P26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Laikas (sekundės)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="R26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tid (sekunder)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="S26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tempo (segundos)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="T26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Время (секунды)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="U26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tiempo (segundos)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X26" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Zaman (saniye)</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A27" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SignalAnalysis</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B27" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">localization\strings</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C27" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">strPlotDerivativeTitle</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">In plot derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="E27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="H27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="J27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivative</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="L27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="M27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="N27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="O27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="P27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="Q27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="R27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="S27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="T27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="U27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="V27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="W27" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Derivada</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="X27" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve"/>
         </x:is>
